--- a/ActionGame/Assets/シーケンス_フロー図/アイテムに関するフロー.xlsx
+++ b/ActionGame/Assets/シーケンス_フロー図/アイテムに関するフロー.xlsx
@@ -1213,62 +1213,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>67183</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1605952" cy="275717"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="142" name="テキスト ボックス 141"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4286250" y="4181983"/>
-          <a:ext cx="1605952" cy="275717"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>ItemInstanceData</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>を取得</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -1952,7 +1896,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>- void SubItem(itemId : Int, num : Int) : void // </a:t>
+              <a:t>- SubItem(itemId : Int, num : Int) : void // </a:t>
             </a:r>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
@@ -2319,8 +2263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y26" sqref="Y26"/>
+    <sheetView tabSelected="1" topLeftCell="E4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2357,7 +2301,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>

--- a/ActionGame/Assets/シーケンス_フロー図/アイテムに関するフロー.xlsx
+++ b/ActionGame/Assets/シーケンス_フロー図/アイテムに関するフロー.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="120" yWindow="60" windowWidth="17235" windowHeight="6720"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="処理フロー図" sheetId="1" r:id="rId1"/>
+    <sheet name="処理フロー" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -672,9 +672,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2609850" cy="459100"/>
     <xdr:sp macro="" textlink="">
@@ -684,7 +684,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12287250" y="2466974"/>
+          <a:off x="12268200" y="3257549"/>
           <a:ext cx="2609850" cy="459100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1538,6 +1538,58 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>504150</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>160296</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>561300</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>90450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="カギ線コネクタ 10"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="179" idx="3"/>
+          <a:endCxn id="99" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11476950" y="2389146"/>
+          <a:ext cx="8972550" cy="273054"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -11466"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -1971,6 +2023,1751 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>124333</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2203488" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="テキスト ボックス 39"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12515850" y="2696083"/>
+          <a:ext cx="2203488" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>取得したインスタンスデータを渡す</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>514349</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="正方形/長方形 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2571749" y="514351"/>
+          <a:ext cx="4600576" cy="13230224"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="円/楕円 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4114801" y="1200150"/>
+          <a:ext cx="1371600" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t>開始</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429001" y="3086100"/>
+          <a:ext cx="2743200" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t>敵を倒す</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>685799</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="4629149"/>
+          <a:ext cx="2743199" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t>アイテムをドロップ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>685799</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="ひし形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="6324600"/>
+          <a:ext cx="2743199" cy="1562100"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t>ドロップしたアイテムの一定距離内に入る</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="8686800"/>
+          <a:ext cx="2743200" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>アイテムを取得</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直線矢印コネクタ 9"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="4"/>
+          <a:endCxn id="5" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800601" y="2114550"/>
+          <a:ext cx="0" cy="971550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線矢印コネクタ 12"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="6" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4800600" y="3771900"/>
+          <a:ext cx="1" cy="857249"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直線矢印コネクタ 16"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="7" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800600" y="5324474"/>
+          <a:ext cx="0" cy="1000126"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直線矢印コネクタ 20"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="2"/>
+          <a:endCxn id="8" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800600" y="7886700"/>
+          <a:ext cx="0" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="正方形/長方形 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7743824" y="514350"/>
+          <a:ext cx="4600576" cy="13230225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>685799</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="正方形/長方形 29"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8915400" y="4619625"/>
+          <a:ext cx="2743199" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ItemInstanceManager::AddInstance()</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>685799</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="直線矢印コネクタ 31"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="3"/>
+          <a:endCxn id="30" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6172199" y="4967288"/>
+          <a:ext cx="2743201" cy="9524"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2680281" cy="459100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="テキスト ボックス 33"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6257925" y="4486275"/>
+          <a:ext cx="2680281" cy="459100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>ドロップしたアイテムの管理</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>、個数、敵の座標を送る</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="正方形/長方形 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8924925" y="8724900"/>
+          <a:ext cx="2743199" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ItemInstanceManager::GetItemInstance()</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="直線矢印コネクタ 37"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="3"/>
+          <a:endCxn id="35" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6172200" y="9058275"/>
+          <a:ext cx="2752725" cy="14288"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1626086" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="テキスト ボックス 39"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6657975" y="8667750"/>
+          <a:ext cx="1626086" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>プレイヤーの座標を送る</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>685799</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="正方形/長方形 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8915400" y="9944100"/>
+          <a:ext cx="2743199" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ItemDataManager::AddItem()</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="直線矢印コネクタ 43"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="35" idx="2"/>
+          <a:endCxn id="42" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10287000" y="9420225"/>
+          <a:ext cx="9525" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2212722" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="テキスト ボックス 45"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7953375" y="9553575"/>
+          <a:ext cx="2212722" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>取得したインスタンスデータを渡す</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="正方形/長方形 46"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8915401" y="11134725"/>
+          <a:ext cx="2743199" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ItemInstanceManager::DeleteIetmInstance()</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="直線矢印コネクタ 47"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="42" idx="2"/>
+          <a:endCxn id="47" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10287000" y="10639425"/>
+          <a:ext cx="1" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2212722" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="テキスト ボックス 51"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8010525" y="10725150"/>
+          <a:ext cx="2212722" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>取得したインスタンスデータを渡す</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="円/楕円 52"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4114800" y="12115800"/>
+          <a:ext cx="1371600" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t>終了</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="直線矢印コネクタ 54"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="2"/>
+          <a:endCxn id="53" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800600" y="9429750"/>
+          <a:ext cx="0" cy="2686050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2152650" cy="359073"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="テキスト ボックス 56"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4324350" y="733425"/>
+          <a:ext cx="2152650" cy="359073"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+            <a:t>処理フロー</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>136227</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2152650" cy="359073"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="テキスト ボックス 57"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9020175" y="822027"/>
+          <a:ext cx="2152650" cy="359073"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+            <a:t>実行される関数</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="387094" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="テキスト ボックス 58"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4962525" y="8134350"/>
+          <a:ext cx="387094" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>YES</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="369140" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="テキスト ボックス 59"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3114675" y="6791325"/>
+          <a:ext cx="369140" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>NO</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="カギ線コネクタ 61"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="1"/>
+          <a:endCxn id="53" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipH="1" flipV="1">
+          <a:off x="3429000" y="7105650"/>
+          <a:ext cx="685800" cy="5467350"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -33333"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2263,8 +4060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" topLeftCell="P3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V24" sqref="V24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2301,14 +4098,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="D41" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
